--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-282588.4172464306</v>
+        <v>-283401.8644583187</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954292</v>
+        <v>2927877.34595429</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842871</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
         <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443796</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>71.79351549396739</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H11" t="n">
-        <v>234.9781829577618</v>
+        <v>20.59964270025023</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241308</v>
+        <v>61.32070768241304</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.08218037545161</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842795</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U11" t="n">
-        <v>163.296248452629</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
         <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
-        <v>57.77334520310382</v>
+        <v>57.77334520310427</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898424</v>
+        <v>92.7226826589842</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438472</v>
+        <v>78.92267750438468</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196311</v>
+        <v>62.54404190196307</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>40.83515396660489</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033077</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366589</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271696</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>89.04616191560885</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706117</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
         <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250262</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y13" t="n">
         <v>130.8176748810939</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864969</v>
+        <v>20.15857103829563</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564024</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443796</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>63.50521611108227</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577618</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241309</v>
+        <v>61.32070768241303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545166</v>
+        <v>84.0821803754516</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842795</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U14" t="n">
-        <v>163.296248452629</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244663</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024232</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313686</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898424</v>
+        <v>92.72268265898418</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>78.92267750438467</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196311</v>
+        <v>62.54404190196306</v>
       </c>
       <c r="E16" t="n">
-        <v>11.30310996278305</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592887</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227657</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.1627699127169</v>
       </c>
       <c r="S16" t="n">
-        <v>118.363767619385</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706117</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V16" t="n">
         <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2977051292231</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250262</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810939</v>
+        <v>123.490058934982</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>224.1761802728466</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305284</v>
       </c>
       <c r="D17" t="n">
         <v>203.1688012750563</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449619</v>
       </c>
       <c r="F17" t="n">
         <v>244.082754932939</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4772461807972</v>
+        <v>245.4772461807973</v>
       </c>
       <c r="H17" t="n">
         <v>158.0483914463212</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864011101</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283895</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118837</v>
+        <v>86.3664569411884</v>
       </c>
       <c r="V17" t="n">
         <v>167.6825575130257</v>
@@ -1941,7 +1941,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I18" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310427</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>145.9169861849574</v>
       </c>
       <c r="T18" t="n">
-        <v>185.6363186866071</v>
+        <v>185.6363186866066</v>
       </c>
       <c r="U18" t="n">
         <v>216.2908792854683</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754366</v>
+        <v>15.79289114754368</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944139</v>
+        <v>1.992885992944167</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73893332725569</v>
+        <v>1.061950638890204</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.3701265538906</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794441</v>
+        <v>41.43397610794444</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917109</v>
+        <v>201.9347306014271</v>
       </c>
       <c r="U19" t="n">
         <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716925</v>
+        <v>92.20102754716928</v>
       </c>
       <c r="W19" t="n">
         <v>117.3679136177825</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358565</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965334</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305284</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449619</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4772461807972</v>
+        <v>245.4772461807973</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864010987</v>
+        <v>7.152388864011105</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283884</v>
+        <v>53.82993817283894</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118829</v>
+        <v>86.3664569411884</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H21" t="n">
-        <v>96.15438866313485</v>
+        <v>96.15438866313592</v>
       </c>
       <c r="I21" t="n">
         <v>57.7733452031032</v>
@@ -2208,7 +2208,7 @@
         <v>41.28834215945685</v>
       </c>
       <c r="S21" t="n">
-        <v>145.9169861849578</v>
+        <v>145.9169861849574</v>
       </c>
       <c r="T21" t="n">
         <v>185.6363186866066</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.79899546972124</v>
+        <v>15.79289114754368</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944053</v>
+        <v>1.992885992944167</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890091</v>
+        <v>1.061950638890204</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794432</v>
+        <v>41.43397610794444</v>
       </c>
       <c r="T22" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917111</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716928</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177824</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358565</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965322</v>
+        <v>209.8498361163107</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305284</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449619</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4772461807972</v>
+        <v>245.4772461807973</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864010987</v>
+        <v>7.152388864011105</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283884</v>
+        <v>53.82993817283894</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118829</v>
+        <v>86.3664569411884</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754357</v>
+        <v>15.79289114754368</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944053</v>
+        <v>1.992885992944167</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890091</v>
+        <v>1.061950638890204</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794432</v>
+        <v>197.3959288546018</v>
       </c>
       <c r="T25" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917111</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716928</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177824</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358565</v>
       </c>
       <c r="Y25" t="n">
-        <v>58.89398769183089</v>
+        <v>53.88788336965334</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
@@ -2728,7 +2728,7 @@
         <v>64.48972323292625</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I28" t="n">
         <v>32.99398650487205</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S28" t="n">
         <v>104.8617487019805</v>
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500857</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804714</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V29" t="n">
         <v>231.1103301070618</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157973</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698021</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D31" t="n">
-        <v>49.0420229845586</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033805</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852436</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292625</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626141</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487207</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U31" t="n">
         <v>181.8060034967287</v>
@@ -3047,7 +3047,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500857</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>117.257710766875</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V32" t="n">
         <v>231.1103301070618</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157973</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698021</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D34" t="n">
-        <v>49.0420229845586</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033805</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852436</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292625</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I34" t="n">
         <v>32.99398650487205</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531246</v>
       </c>
       <c r="S34" t="n">
         <v>104.8617487019805</v>
@@ -3266,22 +3266,22 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C35" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D35" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112973</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995758</v>
+        <v>67.1701060499575</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830695</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y35" t="n">
         <v>237.0196808970466</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466232</v>
+        <v>29.13305902466223</v>
       </c>
       <c r="C37" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006271</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600884</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343969</v>
+        <v>3.043437609343883</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506307</v>
+        <v>74.29098035119105</v>
       </c>
       <c r="T37" t="n">
-        <v>78.82978209801549</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949012</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070428</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677197</v>
+        <v>67.22805124677188</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C38" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D38" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F38" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G38" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H38" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112973</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995758</v>
+        <v>67.1701060499575</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830695</v>
       </c>
       <c r="V38" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W38" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X38" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y38" t="n">
         <v>237.0196808970466</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466232</v>
+        <v>48.64989539079028</v>
       </c>
       <c r="C40" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006271</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600884</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343969</v>
+        <v>3.043437609343883</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.37613684678879</v>
+        <v>54.77414398506298</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628974</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U40" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W40" t="n">
-        <v>130.7080814949012</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070428</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677197</v>
+        <v>67.22805124677188</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3743,19 @@
         <v>225.527665107647</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E41" t="n">
         <v>238.2511067220805</v>
       </c>
       <c r="F41" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G41" t="n">
         <v>258.8174140579159</v>
       </c>
       <c r="H41" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112971</v>
+        <v>20.49255674112974</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995755</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W41" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X41" t="n">
         <v>225.6230831008479</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466229</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006277</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600881</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343941</v>
+        <v>3.043437609343969</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>74.29098035119014</v>
+        <v>54.77414398506307</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628971</v>
+        <v>96.74462560241685</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V43" t="n">
         <v>105.5411954242879</v>
       </c>
       <c r="W43" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070425</v>
+        <v>76.35318349070428</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677194</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3980,19 @@
         <v>225.527665107647</v>
       </c>
       <c r="D44" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E44" t="n">
         <v>238.2511067220805</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G44" t="n">
         <v>258.8174140579159</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112971</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995755</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008475</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y44" t="n">
         <v>237.0196808970466</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466229</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006277</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600881</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343941</v>
+        <v>3.043437609343969</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506304</v>
+        <v>54.77414398506307</v>
       </c>
       <c r="T46" t="n">
-        <v>96.74462560241685</v>
+        <v>77.22778923628974</v>
       </c>
       <c r="U46" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V46" t="n">
         <v>105.5411954242879</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070425</v>
+        <v>95.87001985683138</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677194</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1334.512425216632</v>
+        <v>1034.006358430718</v>
       </c>
       <c r="C11" t="n">
-        <v>1334.512425216632</v>
+        <v>741.9686930347898</v>
       </c>
       <c r="D11" t="n">
-        <v>1051.584553715119</v>
+        <v>459.0408215332777</v>
       </c>
       <c r="E11" t="n">
-        <v>746.6949270924907</v>
+        <v>459.0408215332777</v>
       </c>
       <c r="F11" t="n">
-        <v>422.4398296739255</v>
+        <v>459.0408215332777</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547665</v>
+        <v>133.3771470966738</v>
       </c>
       <c r="H11" t="n">
-        <v>112.5694271974314</v>
+        <v>112.5694271974312</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J11" t="n">
-        <v>50.62931842731713</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K11" t="n">
-        <v>287.2391769275706</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L11" t="n">
-        <v>719.2973161773715</v>
+        <v>907.9461548436964</v>
       </c>
       <c r="M11" t="n">
-        <v>1206.194903144586</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N11" t="n">
-        <v>1679.700173710447</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O11" t="n">
-        <v>2074.574784355413</v>
+        <v>2263.223623021738</v>
       </c>
       <c r="P11" t="n">
         <v>2379.433668932841</v>
@@ -5066,25 +5066,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S11" t="n">
-        <v>2531.465921365857</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2399.385386331231</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U11" t="n">
-        <v>2234.439680823526</v>
+        <v>2149.508185494787</v>
       </c>
       <c r="V11" t="n">
-        <v>2234.439680823526</v>
+        <v>1902.425004661992</v>
       </c>
       <c r="W11" t="n">
-        <v>2234.439680823526</v>
+        <v>1629.786167790858</v>
       </c>
       <c r="X11" t="n">
-        <v>1942.305633616284</v>
+        <v>1337.652120583616</v>
       </c>
       <c r="Y11" t="n">
-        <v>1638.659871463386</v>
+        <v>1034.006358430718</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8133128779675</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2429931660055</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158804</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881643</v>
+        <v>206.1118778881647</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9862327738867</v>
+        <v>108.9862327738871</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J12" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K12" t="n">
-        <v>326.203808759672</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="L12" t="n">
-        <v>753.9911953756168</v>
+        <v>565.6337791247895</v>
       </c>
       <c r="M12" t="n">
-        <v>1311.335413027355</v>
+        <v>935.080755788848</v>
       </c>
       <c r="N12" t="n">
         <v>1520.571119459616</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P12" t="n">
         <v>2337.264736621381</v>
@@ -5142,13 +5142,13 @@
         <v>2531.465921365857</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S12" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U12" t="n">
         <v>1936.382561450211</v>
@@ -5160,10 +5160,10 @@
         <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>386.5763166319849</v>
+        <v>234.7726248646431</v>
       </c>
       <c r="C13" t="n">
-        <v>306.8564403649297</v>
+        <v>155.0527485975878</v>
       </c>
       <c r="D13" t="n">
-        <v>243.6806404639568</v>
+        <v>91.87694869661502</v>
       </c>
       <c r="E13" t="n">
-        <v>243.6806404639568</v>
+        <v>91.87694869661502</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6806404639568</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383702</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59498047002072</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413171</v>
+        <v>96.79005415413175</v>
       </c>
       <c r="K13" t="n">
-        <v>246.2990519958641</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L13" t="n">
-        <v>470.584712840536</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447746</v>
+        <v>714.1904553447747</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068813</v>
+        <v>957.3332466068814</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P13" t="n">
-        <v>1357.735393016881</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q13" t="n">
         <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424592</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S13" t="n">
-        <v>1289.511978328018</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T13" t="n">
-        <v>1147.272167347602</v>
+        <v>1166.307686750573</v>
       </c>
       <c r="U13" t="n">
-        <v>949.991336626255</v>
+        <v>969.0268560292259</v>
       </c>
       <c r="V13" t="n">
-        <v>949.991336626255</v>
+        <v>798.187644858913</v>
       </c>
       <c r="W13" t="n">
-        <v>753.7310284149186</v>
+        <v>601.9273366475766</v>
       </c>
       <c r="X13" t="n">
-        <v>612.3746575815587</v>
+        <v>460.5709658142168</v>
       </c>
       <c r="Y13" t="n">
-        <v>480.2355920451003</v>
+        <v>328.4319002777584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1326.140405637959</v>
+        <v>729.8589121839634</v>
       </c>
       <c r="C14" t="n">
-        <v>1326.140405637959</v>
+        <v>437.8212467880352</v>
       </c>
       <c r="D14" t="n">
-        <v>1043.212534136447</v>
+        <v>417.45905382006</v>
       </c>
       <c r="E14" t="n">
-        <v>738.3229075138182</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="F14" t="n">
-        <v>414.067810095253</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547665</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974314</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="I14" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J14" t="n">
         <v>167.8985774144699</v>
@@ -5288,10 +5288,10 @@
         <v>1394.843741810911</v>
       </c>
       <c r="N14" t="n">
-        <v>1679.700173710447</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O14" t="n">
-        <v>2074.574784355413</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P14" t="n">
         <v>2379.433668932841</v>
@@ -5306,22 +5306,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T14" t="n">
-        <v>2314.453891002492</v>
+        <v>2314.453891002493</v>
       </c>
       <c r="U14" t="n">
-        <v>2149.508185494786</v>
+        <v>2149.508185494787</v>
       </c>
       <c r="V14" t="n">
-        <v>1902.425004661991</v>
+        <v>1902.425004661992</v>
       </c>
       <c r="W14" t="n">
-        <v>1629.786167790857</v>
+        <v>1629.786167790858</v>
       </c>
       <c r="X14" t="n">
-        <v>1629.786167790857</v>
+        <v>1337.652120583616</v>
       </c>
       <c r="Y14" t="n">
-        <v>1326.140405637959</v>
+        <v>1034.006358430718</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.8133128779667</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189216</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881641</v>
       </c>
       <c r="H15" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I15" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J15" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K15" t="n">
         <v>326.203808759672</v>
@@ -5364,16 +5364,16 @@
         <v>753.9911953756168</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.281940533323</v>
+        <v>1291.673306585978</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.772304204091</v>
+        <v>1877.163670256746</v>
       </c>
       <c r="O15" t="n">
-        <v>2174.873370568727</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.465921365857</v>
@@ -5382,19 +5382,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T15" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X15" t="n">
         <v>1268.754082009649</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234.7726248646419</v>
+        <v>193.5249945953452</v>
       </c>
       <c r="C16" t="n">
-        <v>234.7726248646419</v>
+        <v>113.8051183282899</v>
       </c>
       <c r="D16" t="n">
-        <v>171.5968249636691</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="E16" t="n">
-        <v>160.1795421729792</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="F16" t="n">
-        <v>97.59498047002074</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="G16" t="n">
-        <v>97.59498047002074</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002074</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413172</v>
+        <v>96.79005415413178</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958641</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L16" t="n">
-        <v>470.584712840536</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447747</v>
+        <v>714.1904553447746</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068815</v>
+        <v>957.3332466068814</v>
       </c>
       <c r="O16" t="n">
         <v>1177.722352077498</v>
@@ -5458,28 +5458,28 @@
         <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
-        <v>1428.10685896269</v>
+        <v>1379.457596424593</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.547497730988</v>
+        <v>1259.898235192891</v>
       </c>
       <c r="T16" t="n">
-        <v>1166.307686750572</v>
+        <v>1117.658424212475</v>
       </c>
       <c r="U16" t="n">
-        <v>969.026856029225</v>
+        <v>920.3775934911283</v>
       </c>
       <c r="V16" t="n">
-        <v>798.187644858912</v>
+        <v>749.5383823208153</v>
       </c>
       <c r="W16" t="n">
-        <v>601.9273366475757</v>
+        <v>553.278074109479</v>
       </c>
       <c r="X16" t="n">
-        <v>460.5709658142158</v>
+        <v>411.9217032761191</v>
       </c>
       <c r="Y16" t="n">
-        <v>328.4319002777573</v>
+        <v>287.1842700084605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121849</v>
+        <v>931.9619764121855</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021224</v>
+        <v>704.7792099021231</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961234</v>
+        <v>458.230972596124</v>
       </c>
       <c r="G17" t="n">
-        <v>210.274158272086</v>
+        <v>210.2741582720861</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J17" t="n">
         <v>167.8985774144699</v>
       </c>
       <c r="K17" t="n">
-        <v>475.8880155938953</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L17" t="n">
-        <v>907.9461548436961</v>
+        <v>907.9461548436964</v>
       </c>
       <c r="M17" t="n">
         <v>1394.843741810911</v>
@@ -5528,7 +5528,7 @@
         <v>1868.349012376772</v>
       </c>
       <c r="O17" t="n">
-        <v>2263.223623021737</v>
+        <v>2263.223623021738</v>
       </c>
       <c r="P17" t="n">
         <v>2379.433668932841</v>
@@ -5540,25 +5540,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149685</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.867611227624</v>
+        <v>2469.867611227625</v>
       </c>
       <c r="U17" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112258</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.320468353688</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259012</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.954379218681</v>
+        <v>1577.954379218682</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.813312877967</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660049</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158804</v>
       </c>
       <c r="G18" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881647</v>
       </c>
       <c r="H18" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738871</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J18" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K18" t="n">
-        <v>144.1503362656402</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L18" t="n">
-        <v>571.9377228815849</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.281940533323</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N18" t="n">
-        <v>1714.772304204091</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="O18" t="n">
-        <v>2174.873370568727</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P18" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R18" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S18" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T18" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X18" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y18" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>193.1565364819539</v>
+        <v>53.7150119948266</v>
       </c>
       <c r="C19" t="n">
-        <v>191.1435203274649</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="D19" t="n">
-        <v>191.1435203274649</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="E19" t="n">
-        <v>191.1435203274649</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="F19" t="n">
-        <v>191.1435203274649</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="G19" t="n">
-        <v>93.42742605750965</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H19" t="n">
-        <v>93.42742605750965</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I19" t="n">
-        <v>93.42742605750965</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K19" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L19" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M19" t="n">
         <v>403.7082365724611</v>
@@ -5686,37 +5686,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O19" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748514</v>
       </c>
       <c r="P19" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="Q19" t="n">
-        <v>764.8358896794716</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="R19" t="n">
-        <v>764.8358896794716</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="S19" t="n">
-        <v>722.9833885603358</v>
+        <v>722.9833885603359</v>
       </c>
       <c r="T19" t="n">
-        <v>658.4504376924863</v>
+        <v>519.008913205359</v>
       </c>
       <c r="U19" t="n">
-        <v>538.8764670837058</v>
+        <v>399.4349425965786</v>
       </c>
       <c r="V19" t="n">
-        <v>445.7441160259591</v>
+        <v>306.3025915388318</v>
       </c>
       <c r="W19" t="n">
-        <v>327.1906679271889</v>
+        <v>187.7491434400616</v>
       </c>
       <c r="X19" t="n">
-        <v>263.5411572063953</v>
+        <v>124.099632719268</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.1089517825031</v>
+        <v>69.66742729537577</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.513793084493</v>
+        <v>1351.513793084492</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.18298780113</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121854</v>
+        <v>931.9619764121844</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021231</v>
+        <v>704.7792099021221</v>
       </c>
       <c r="F20" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G20" t="n">
-        <v>210.274158272086</v>
+        <v>210.2741582720861</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J20" t="n">
-        <v>50.62931842731713</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K20" t="n">
-        <v>358.6187566067425</v>
+        <v>287.2391769275715</v>
       </c>
       <c r="L20" t="n">
-        <v>790.6768958565434</v>
+        <v>719.2973161773724</v>
       </c>
       <c r="M20" t="n">
-        <v>1277.574482823758</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N20" t="n">
-        <v>1751.079753389619</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O20" t="n">
-        <v>2145.954364034585</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P20" t="n">
-        <v>2450.813248612012</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.813312877967</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660049</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158804</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881647</v>
       </c>
       <c r="H21" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J21" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K21" t="n">
-        <v>144.1503362656402</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L21" t="n">
-        <v>571.9377228815849</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.281940533323</v>
+        <v>935.080755788848</v>
       </c>
       <c r="N21" t="n">
-        <v>1714.772304204091</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O21" t="n">
-        <v>2174.873370568727</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T21" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X21" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y21" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>206.1956669690493</v>
+        <v>53.7150119948266</v>
       </c>
       <c r="C22" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="D22" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="E22" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033742</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K22" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L22" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M22" t="n">
         <v>403.7082365724611</v>
@@ -5923,37 +5923,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O22" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748514</v>
       </c>
       <c r="P22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="R22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="S22" t="n">
         <v>741.0791900799333</v>
       </c>
       <c r="T22" t="n">
-        <v>676.5462392120837</v>
+        <v>676.5462392120836</v>
       </c>
       <c r="U22" t="n">
-        <v>556.9722686033034</v>
+        <v>556.9722686033032</v>
       </c>
       <c r="V22" t="n">
-        <v>463.8399175455568</v>
+        <v>463.8399175455564</v>
       </c>
       <c r="W22" t="n">
-        <v>345.2864694467867</v>
+        <v>345.2864694467862</v>
       </c>
       <c r="X22" t="n">
-        <v>281.6369587259932</v>
+        <v>281.6369587259926</v>
       </c>
       <c r="Y22" t="n">
-        <v>227.204753302101</v>
+        <v>69.66742729537577</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121849</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021225</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F23" t="n">
         <v>458.2309725961236</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2741582720859</v>
+        <v>210.2741582720861</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J23" t="n">
-        <v>50.62931842731712</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>287.2391769275698</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L23" t="n">
-        <v>719.2973161773707</v>
+        <v>907.9461548436964</v>
       </c>
       <c r="M23" t="n">
-        <v>1206.194903144585</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N23" t="n">
-        <v>1679.700173710446</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O23" t="n">
-        <v>2074.574784355412</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P23" t="n">
-        <v>2379.43366893284</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149683</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227623</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112256</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353688</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259012</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6054,31 +6054,31 @@
         <v>469.2429931660049</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158792</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1118778881636</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H24" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J24" t="n">
-        <v>50.62931842731712</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K24" t="n">
-        <v>326.203808759672</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L24" t="n">
-        <v>753.9911953756168</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M24" t="n">
-        <v>1311.335413027355</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.825776698123</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O24" t="n">
         <v>1980.672185824251</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>206.1956669690493</v>
+        <v>53.7150119948266</v>
       </c>
       <c r="C25" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="D25" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="E25" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033741</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731712</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L25" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M25" t="n">
         <v>403.7082365724611</v>
@@ -6160,37 +6160,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O25" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748514</v>
       </c>
       <c r="P25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="R25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799333</v>
+        <v>583.5418640732087</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120837</v>
+        <v>519.008913205359</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033034</v>
+        <v>399.4349425965786</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455568</v>
+        <v>306.3025915388318</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467867</v>
+        <v>187.7491434400616</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259932</v>
+        <v>124.099632719268</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.1480822695983</v>
+        <v>69.66742729537577</v>
       </c>
     </row>
     <row r="26">
@@ -6209,55 +6209,55 @@
         <v>1255.828533472544</v>
       </c>
       <c r="E26" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967885</v>
       </c>
       <c r="F26" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250966</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353664</v>
+        <v>341.9353438353659</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>698.1273576550346</v>
+        <v>596.8002826177371</v>
       </c>
       <c r="L26" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610935</v>
       </c>
       <c r="M26" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321546</v>
       </c>
       <c r="N26" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O26" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019166</v>
       </c>
       <c r="P26" t="n">
-        <v>3297.692648377288</v>
+        <v>3196.36557333999</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516403</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V26" t="n">
         <v>2921.529745166774</v>
@@ -6269,7 +6269,7 @@
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6300,28 +6300,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J27" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K27" t="n">
-        <v>432.7119054155455</v>
+        <v>157.1374150831905</v>
       </c>
       <c r="L27" t="n">
-        <v>860.4992920314902</v>
+        <v>584.9248016991353</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.843509683229</v>
+        <v>1142.269019350874</v>
       </c>
       <c r="N27" t="n">
-        <v>1539.862142033962</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O27" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.555759195727</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485931</v>
+        <v>435.0960012485932</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284111</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D28" t="n">
         <v>319.4771309743115</v>
       </c>
       <c r="E28" t="n">
-        <v>271.002612953768</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976828</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G28" t="n">
         <v>156.9153196189694</v>
@@ -6379,22 +6379,22 @@
         <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567082</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K28" t="n">
-        <v>292.324072026671</v>
+        <v>292.3240720266707</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995733</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320424</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O28" t="n">
         <v>1277.215367021226</v>
@@ -6412,7 +6412,7 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U28" t="n">
         <v>1101.15821767881</v>
@@ -6427,7 +6427,7 @@
         <v>633.6175363044207</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148353</v>
+        <v>515.1168737148354</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>964.5773097967895</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250974</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353667</v>
+        <v>341.9353438353669</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
@@ -6461,25 +6461,25 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>288.6637597322125</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550348</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.031403358844</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N29" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O29" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P29" t="n">
-        <v>3297.692648377288</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q29" t="n">
         <v>3449.871985516404</v>
@@ -6488,7 +6488,7 @@
         <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T29" t="n">
         <v>3306.281825613529</v>
@@ -6500,7 +6500,7 @@
         <v>2921.529745166775</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X29" t="n">
         <v>2384.033666982144</v>
@@ -6546,16 +6546,16 @@
         <v>432.7119054155455</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314903</v>
+        <v>860.4992920314902</v>
       </c>
       <c r="M30" t="n">
-        <v>1310.964329160322</v>
+        <v>954.3717783631929</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.454692831091</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.555759195726</v>
+        <v>1999.963208398597</v>
       </c>
       <c r="P30" t="n">
         <v>2356.555759195726</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485934</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284114</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743118</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537683</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976831</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189698</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H31" t="n">
         <v>103.2476000974933</v>
@@ -6622,13 +6622,13 @@
         <v>129.448075456708</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L31" t="n">
-        <v>529.976731599573</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320419</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N31" t="n">
         <v>1043.459262822379</v>
@@ -6640,31 +6640,31 @@
         <v>1470.59540668884</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R31" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771654</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486825</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.158217678811</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553709</v>
+        <v>943.95740945537</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909077</v>
+        <v>761.3355041909068</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044212</v>
+        <v>633.6175363044202</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148356</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250973</v>
       </c>
       <c r="G32" t="n">
-        <v>341.935343835366</v>
+        <v>341.9353438353667</v>
       </c>
       <c r="H32" t="n">
         <v>118.2220468249039</v>
@@ -6704,19 +6704,19 @@
         <v>698.1273576550346</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M32" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N32" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O32" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P32" t="n">
-        <v>3297.692648377288</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q32" t="n">
         <v>3449.871985516404</v>
@@ -6725,25 +6725,25 @@
         <v>3496.017050083147</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X32" t="n">
-        <v>2384.033666982144</v>
+        <v>2384.033666982145</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.026307776121</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J33" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155455</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314902</v>
+        <v>497.7077276176077</v>
       </c>
       <c r="M33" t="n">
-        <v>1414.472844727829</v>
+        <v>1055.051945269346</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.963208398597</v>
+        <v>1640.542308940114</v>
       </c>
       <c r="O33" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.555759195727</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.096001248593</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C34" t="n">
-        <v>369.014527928411</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743114</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537679</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976827</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189693</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H34" t="n">
         <v>103.2476000974933</v>
@@ -6856,16 +6856,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4480754567081</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320428</v>
       </c>
       <c r="N34" t="n">
         <v>1043.45926282238</v>
@@ -6874,7 +6874,7 @@
         <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q34" t="n">
         <v>1554.33387136288</v>
@@ -6892,16 +6892,16 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553707</v>
+        <v>943.9574094553706</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909075</v>
+        <v>761.3355041909074</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044204</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148352</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018766</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442195</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906255</v>
+        <v>489.030782990626</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H35" t="n">
         <v>54.47929472662988</v>
@@ -6941,16 +6941,16 @@
         <v>479.7379918932081</v>
       </c>
       <c r="L35" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430095</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N35" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898478</v>
@@ -7017,22 +7017,22 @@
         <v>141.6963688081575</v>
       </c>
       <c r="K36" t="n">
-        <v>417.2708591405124</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="L36" t="n">
-        <v>845.0582457564572</v>
+        <v>569.4837554241022</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.402463408195</v>
+        <v>1126.82797307584</v>
       </c>
       <c r="N36" t="n">
-        <v>1984.522162123563</v>
+        <v>1712.318336746609</v>
       </c>
       <c r="O36" t="n">
-        <v>1984.522162123563</v>
+        <v>2172.419403111244</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.114712920693</v>
+        <v>2529.011953908374</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.315897665168</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.58900179270626</v>
+        <v>87.589001792706</v>
       </c>
       <c r="C37" t="n">
-        <v>72.10106859062262</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062262</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062262</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062262</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000763</v>
+        <v>57.55347413000754</v>
       </c>
       <c r="H37" t="n">
         <v>54.47929472662988</v>
@@ -7114,31 +7114,31 @@
         <v>786.7816674983818</v>
       </c>
       <c r="Q37" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R37" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S37" t="n">
-        <v>713.3584478120541</v>
+        <v>711.7402732042494</v>
       </c>
       <c r="T37" t="n">
-        <v>633.7324052888061</v>
+        <v>633.7324052888054</v>
       </c>
       <c r="U37" t="n">
-        <v>500.6835176324312</v>
+        <v>500.6835176324304</v>
       </c>
       <c r="V37" t="n">
-        <v>394.0762495270898</v>
+        <v>394.0762495270892</v>
       </c>
       <c r="W37" t="n">
-        <v>262.047884380725</v>
+        <v>262.0478843807245</v>
       </c>
       <c r="X37" t="n">
-        <v>184.9234566123368</v>
+        <v>184.9234566123364</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.01633414085</v>
+        <v>117.0163341408497</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C38" t="n">
         <v>1208.407549338416</v>
@@ -7163,16 +7163,16 @@
         <v>489.0307829906255</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K38" t="n">
         <v>479.7379918932081</v>
@@ -7187,37 +7187,37 @@
         <v>1872.198988676085</v>
       </c>
       <c r="O38" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P38" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067725</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098071</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V38" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J39" t="n">
         <v>141.6963688081575</v>
       </c>
       <c r="K39" t="n">
-        <v>417.2708591405124</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="L39" t="n">
-        <v>845.0582457564572</v>
+        <v>569.4837554241022</v>
       </c>
       <c r="M39" t="n">
-        <v>938.9307320881596</v>
+        <v>1126.82797307584</v>
       </c>
       <c r="N39" t="n">
-        <v>1524.421095758928</v>
+        <v>1712.318336746609</v>
       </c>
       <c r="O39" t="n">
         <v>1984.522162123563</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.58900179270626</v>
+        <v>87.58900179270597</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062262</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062262</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062262</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062262</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000763</v>
+        <v>57.55347413000752</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="K40" t="n">
         <v>115.881131553196</v>
@@ -7351,31 +7351,31 @@
         <v>786.7816674983818</v>
       </c>
       <c r="Q40" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R40" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S40" t="n">
-        <v>711.7402732042503</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T40" t="n">
-        <v>633.7324052888061</v>
+        <v>653.4463814162075</v>
       </c>
       <c r="U40" t="n">
-        <v>500.6835176324312</v>
+        <v>520.3974937598325</v>
       </c>
       <c r="V40" t="n">
-        <v>394.0762495270898</v>
+        <v>413.7902256544913</v>
       </c>
       <c r="W40" t="n">
-        <v>262.047884380725</v>
+        <v>281.7618605081266</v>
       </c>
       <c r="X40" t="n">
-        <v>184.9234566123368</v>
+        <v>204.6374327397385</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.01633414085</v>
+        <v>136.7303102682517</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338418</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018757</v>
+        <v>989.7116209018768</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442195</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906251</v>
+        <v>489.030782990626</v>
       </c>
       <c r="G41" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137825</v>
       </c>
       <c r="K41" t="n">
-        <v>479.737991893208</v>
+        <v>479.7379918932079</v>
       </c>
       <c r="L41" t="n">
         <v>911.7961311430089</v>
@@ -7430,31 +7430,31 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655339</v>
       </c>
       <c r="V41" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887516</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081354</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.542593939083</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J42" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K42" t="n">
         <v>330.0537850589848</v>
       </c>
       <c r="L42" t="n">
-        <v>757.8411716749295</v>
+        <v>575.7876991808967</v>
       </c>
       <c r="M42" t="n">
-        <v>1315.185389326668</v>
+        <v>1133.131916832635</v>
       </c>
       <c r="N42" t="n">
-        <v>1524.421095758928</v>
+        <v>1718.622280503403</v>
       </c>
       <c r="O42" t="n">
-        <v>1984.522162123563</v>
+        <v>2178.723346868039</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.315897665168</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.58900179270616</v>
+        <v>87.58900179270626</v>
       </c>
       <c r="C43" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D43" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E43" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F43" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000759</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K43" t="n">
         <v>115.881131553196</v>
@@ -7576,43 +7576,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O43" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S43" t="n">
-        <v>711.7402732042501</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T43" t="n">
-        <v>633.7324052888059</v>
+        <v>633.7324052888061</v>
       </c>
       <c r="U43" t="n">
-        <v>500.6835176324309</v>
+        <v>500.6835176324312</v>
       </c>
       <c r="V43" t="n">
-        <v>394.0762495270897</v>
+        <v>394.0762495270898</v>
       </c>
       <c r="W43" t="n">
-        <v>262.0478843807248</v>
+        <v>262.047884380725</v>
       </c>
       <c r="X43" t="n">
-        <v>184.9234566123367</v>
+        <v>184.9234566123368</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.0163341408499</v>
+        <v>117.01633414085</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442186</v>
       </c>
       <c r="F44" t="n">
         <v>489.0307829906255</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.737991893208</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L44" t="n">
         <v>911.7961311430089</v>
@@ -7661,22 +7661,22 @@
         <v>1872.198988676085</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P44" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R44" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U44" t="n">
         <v>2534.702829655338</v>
@@ -7685,7 +7685,7 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X44" t="n">
         <v>1915.542593939082</v>
@@ -7722,28 +7722,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J45" t="n">
-        <v>54.47929472662987</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K45" t="n">
-        <v>330.0537850589848</v>
+        <v>381.5865144364212</v>
       </c>
       <c r="L45" t="n">
-        <v>757.8411716749295</v>
+        <v>381.5865144364212</v>
       </c>
       <c r="M45" t="n">
-        <v>1315.185389326668</v>
+        <v>938.9307320881595</v>
       </c>
       <c r="N45" t="n">
-        <v>1900.675752997436</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O45" t="n">
-        <v>2360.776819362071</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.315897665168</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.315897665168</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270616</v>
+        <v>87.58900179270626</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000759</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K46" t="n">
         <v>115.881131553196</v>
@@ -7813,43 +7813,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O46" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316512</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T46" t="n">
-        <v>633.7324052888059</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324309</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V46" t="n">
-        <v>394.0762495270897</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807248</v>
+        <v>281.7618605081261</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123367</v>
+        <v>184.9234566123368</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408499</v>
+        <v>117.01633414085</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>349.2884508079969</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
@@ -8705,7 +8705,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>227.7839381316908</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,19 +8766,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.82029131472581</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356947</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>415.6213899581517</v>
       </c>
       <c r="N12" t="n">
-        <v>243.0898773147938</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8936,10 +8936,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>377.996619244342</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>304.4858531503324</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.82029131472581</v>
+        <v>75.82029131472582</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>421.5241864163816</v>
+        <v>585.5558692978508</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>53.80710347724198</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.9376611833964</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>159.9124116577342</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,16 +9252,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>619.7403745704587</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>47.27246317627817</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>230.8346538512778</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.9089023233596</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,16 +9477,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>159.9124116577342</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525981</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>569.371790244606</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>349.2884508079962</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406823</v>
+        <v>393.813211049446</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,10 +9726,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869876</v>
       </c>
       <c r="O24" t="n">
-        <v>131.9658057279222</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356947</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>154.9918226869881</v>
+        <v>433.3498937297704</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10197,7 +10197,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>497.4578146700442</v>
+        <v>137.263318915368</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10206,7 +10206,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>53.80710347724197</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10425,22 +10425,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472582</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356947</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>602.0118707988388</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>47.27246317627819</v>
+        <v>410.3238767707048</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578766</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,7 +10665,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356947</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,16 +10674,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>619.7403745704576</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>47.27246317627819</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>83.30528113975453</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578757</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10902,19 +10902,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356947</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>137.2633189153678</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>322.2258221428991</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.82029131472584</v>
+        <v>75.82029131472582</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>298.2000524358779</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>243.0898773147932</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578762</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>307.7600154859571</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525981</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11391,10 +11391,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>230.1092027732997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419689</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G11" t="n">
-        <v>250.6135221982705</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>214.3785402575115</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545166</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774256</v>
+        <v>61.49179175774252</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592887</v>
+        <v>21.12356211932394</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>77.99174215033072</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.63306124366585</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.49600542227651</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.16276991271691</v>
       </c>
       <c r="S13" t="n">
-        <v>29.31760570377614</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586098</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842871</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419689</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>259.9400217482012</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G14" t="n">
-        <v>258.9018215811556</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.9781829577617</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351698</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438472</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.18868179495951</v>
+        <v>61.4917917577425</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592881</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033077</v>
+        <v>77.99174215033071</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366588</v>
+        <v>66.63306124366585</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.49600542227651</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271695</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>7.32761594611182</v>
       </c>
     </row>
     <row r="17">
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>981942.6168222115</v>
+        <v>981942.6168222114</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>981942.6168222112</v>
+        <v>981942.6168222114</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>402085.2315413347</v>
       </c>
       <c r="C2" t="n">
-        <v>402085.2315413349</v>
+        <v>402085.2315413346</v>
       </c>
       <c r="D2" t="n">
         <v>402085.2315413348</v>
       </c>
       <c r="E2" t="n">
-        <v>351375.5690128775</v>
+        <v>351375.5690128774</v>
       </c>
       <c r="F2" t="n">
-        <v>351375.5690128772</v>
+        <v>351375.5690128773</v>
       </c>
       <c r="G2" t="n">
-        <v>403002.6317594456</v>
+        <v>403002.6317594455</v>
       </c>
       <c r="H2" t="n">
-        <v>403002.6317594453</v>
+        <v>403002.6317594455</v>
       </c>
       <c r="I2" t="n">
-        <v>403002.6317594453</v>
+        <v>403002.6317594454</v>
       </c>
       <c r="J2" t="n">
         <v>403002.6317594452</v>
       </c>
       <c r="K2" t="n">
-        <v>403002.6317594453</v>
+        <v>403002.6317594452</v>
       </c>
       <c r="L2" t="n">
         <v>403002.6317594452</v>
       </c>
       <c r="M2" t="n">
-        <v>403002.6317594455</v>
+        <v>403002.6317594456</v>
       </c>
       <c r="N2" t="n">
-        <v>403002.6317594455</v>
+        <v>403002.6317594456</v>
       </c>
       <c r="O2" t="n">
         <v>403002.6317594456</v>
       </c>
       <c r="P2" t="n">
-        <v>403002.6317594457</v>
+        <v>403002.6317594456</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>367830.3395149715</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915246</v>
+        <v>61543.8332091524</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613924</v>
+        <v>83547.74167613921</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915246</v>
+        <v>61543.8332091524</v>
       </c>
       <c r="M3" t="n">
         <v>149683.3109415065</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561252</v>
+        <v>20455.48779561256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>255024.1601164462</v>
       </c>
       <c r="F4" t="n">
-        <v>255024.1601164462</v>
+        <v>255024.1601164463</v>
       </c>
       <c r="G4" t="n">
-        <v>310950.7206745582</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="H4" t="n">
-        <v>310950.7206745582</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="I4" t="n">
-        <v>310950.7206745582</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="J4" t="n">
-        <v>309193.0084127064</v>
+        <v>309193.0084127063</v>
       </c>
       <c r="K4" t="n">
         <v>309193.0084127064</v>
@@ -26448,16 +26448,16 @@
         <v>309193.0084127064</v>
       </c>
       <c r="M4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="N4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="O4" t="n">
         <v>308176.3362657601</v>
       </c>
       <c r="P4" t="n">
-        <v>308176.3362657602</v>
+        <v>308176.3362657601</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>48881.83299975545</v>
       </c>
       <c r="F5" t="n">
-        <v>48881.83299975545</v>
+        <v>48881.83299975546</v>
       </c>
       <c r="G5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="H5" t="n">
         <v>55349.24364233075</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462553</v>
       </c>
       <c r="K5" t="n">
         <v>64678.11138462555</v>
@@ -26503,13 +26503,13 @@
         <v>57153.73105654695</v>
       </c>
       <c r="N5" t="n">
+        <v>57153.73105654694</v>
+      </c>
+      <c r="O5" t="n">
         <v>57153.73105654695</v>
       </c>
-      <c r="O5" t="n">
-        <v>57153.73105654694</v>
-      </c>
       <c r="P5" t="n">
-        <v>57153.73105654694</v>
+        <v>57153.73105654695</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33149.77487297306</v>
+        <v>-33154.14344544031</v>
       </c>
       <c r="C6" t="n">
-        <v>-33149.77487297283</v>
+        <v>-33154.14344544031</v>
       </c>
       <c r="D6" t="n">
-        <v>-33149.774872973</v>
+        <v>-33154.1434454402</v>
       </c>
       <c r="E6" t="n">
-        <v>-320360.7636182956</v>
+        <v>-320606.6067742319</v>
       </c>
       <c r="F6" t="n">
-        <v>47469.57589667562</v>
+        <v>47223.73274073954</v>
       </c>
       <c r="G6" t="n">
-        <v>-24841.1657665958</v>
+        <v>-24841.16576659569</v>
       </c>
       <c r="H6" t="n">
-        <v>36702.6674425563</v>
+        <v>36702.66744255659</v>
       </c>
       <c r="I6" t="n">
-        <v>36702.66744255637</v>
+        <v>36702.66744255647</v>
       </c>
       <c r="J6" t="n">
-        <v>-54416.22971402598</v>
+        <v>-54416.22971402585</v>
       </c>
       <c r="K6" t="n">
-        <v>29131.51196211338</v>
+        <v>29131.5119621132</v>
       </c>
       <c r="L6" t="n">
-        <v>-32412.32124703919</v>
+        <v>-32412.32124703913</v>
       </c>
       <c r="M6" t="n">
         <v>-112010.7465043681</v>
       </c>
       <c r="N6" t="n">
-        <v>37672.56443713846</v>
+        <v>37672.56443713853</v>
       </c>
       <c r="O6" t="n">
-        <v>17217.07664152604</v>
+        <v>17217.07664152598</v>
       </c>
       <c r="P6" t="n">
-        <v>37672.56443713859</v>
+        <v>37672.56443713852</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="J2" t="n">
         <v>102.4991512559563</v>
@@ -26716,10 +26716,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="O2" t="n">
         <v>152.5867559728737</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="F3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="G3" t="n">
         <v>134.0206915791157</v>
@@ -26762,7 +26762,7 @@
         <v>134.0206915791157</v>
       </c>
       <c r="K3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="L3" t="n">
         <v>134.0206915791157</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414639</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207865</v>
       </c>
       <c r="K4" t="n">
         <v>874.0042625207867</v>
@@ -26823,13 +26823,13 @@
         <v>680.9911840828735</v>
       </c>
       <c r="N4" t="n">
+        <v>680.9911840828732</v>
+      </c>
+      <c r="O4" t="n">
         <v>680.9911840828735</v>
       </c>
-      <c r="O4" t="n">
-        <v>680.9911840828734</v>
-      </c>
       <c r="P4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828735</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144058</v>
+        <v>76.9297915114405</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451562</v>
+        <v>25.56935974451578</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144058</v>
+        <v>76.9297915114405</v>
       </c>
       <c r="M2" t="n">
-        <v>50.0876047169175</v>
+        <v>50.08760471691751</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451565</v>
+        <v>25.56935974451569</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793228</v>
+        <v>241.1377821793222</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035509</v>
+        <v>439.853401903551</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144058</v>
+        <v>76.9297915114405</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451562</v>
+        <v>25.56935974451578</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591269</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.181721801112872e-13</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591269</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="I17" t="n">
         <v>150.3178400209649</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591272</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>70.24994116162685</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="H19" t="n">
         <v>155.6301935822177</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9269238499924</v>
+        <v>27.87981460773631</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="I20" t="n">
         <v>150.3178400209649</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591272</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
     </row>
     <row r="21">
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>160.9208195278148</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28968,10 +28968,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="H22" t="n">
         <v>155.6301935822177</v>
@@ -28980,7 +28980,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103335017</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="I23" t="n">
         <v>150.3178400209649</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591272</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29205,10 +29205,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="H25" t="n">
         <v>155.6301935822177</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334989</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="Y25" t="n">
-        <v>160.9208195278148</v>
+        <v>165.9269238499923</v>
       </c>
     </row>
     <row r="26">
@@ -29299,7 +29299,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102012164</v>
       </c>
       <c r="L26" t="n">
         <v>102.4991512559563</v>
@@ -29317,7 +29317,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1485704102021543</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R26" t="n">
         <v>102.4991512559563</v>
@@ -29539,7 +29539,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102021259</v>
       </c>
       <c r="M29" t="n">
         <v>102.4991512559563</v>
@@ -29554,7 +29554,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1485704102021259</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R29" t="n">
         <v>102.4991512559563</v>
@@ -29776,7 +29776,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102021259</v>
       </c>
       <c r="M32" t="n">
         <v>102.4991512559563</v>
@@ -29791,7 +29791,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1485704102021543</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R32" t="n">
         <v>102.4991512559563</v>
@@ -29937,7 +29937,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.499151255957</v>
       </c>
       <c r="N34" t="n">
         <v>102.4991512559563</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591272</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067457</v>
       </c>
       <c r="T37" t="n">
-        <v>150.984763111148</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209649</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591272</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067457</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R40" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S40" t="n">
-        <v>150.984763111148</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591272</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728737</v>
@@ -30639,7 +30639,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,16 +30660,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R43" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
+        <v>152.5867559728737</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.0699196067466</v>
-      </c>
-      <c r="T43" t="n">
-        <v>152.5867559728737</v>
       </c>
       <c r="U43" t="n">
         <v>152.5867559728737</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591272</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S44" t="n">
         <v>152.5867559728737</v>
@@ -30876,7 +30876,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512687</v>
@@ -30906,7 +30906,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="T46" t="n">
-        <v>133.0699196067466</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U46" t="n">
         <v>152.5867559728737</v>
@@ -30918,7 +30918,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="Y46" t="n">
         <v>152.5867559728737</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J11" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q11" t="n">
         <v>58.18181691563512</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319249</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S11" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T11" t="n">
         <v>2.358494783467655</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>0.2882709215097962</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J12" t="n">
         <v>27.23528035194088</v>
@@ -31844,28 +31844,28 @@
         <v>46.54943209309722</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N12" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q12" t="n">
         <v>36.79753026149609</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T12" t="n">
         <v>1.161934109067994</v>
@@ -31911,40 +31911,40 @@
         <v>0.2416766569459464</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J13" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608359</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M13" t="n">
         <v>37.88391450653594</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428291</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O13" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q13" t="n">
         <v>20.23712442844648</v>
       </c>
       <c r="R13" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T13" t="n">
         <v>1.032618443314498</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J14" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q14" t="n">
         <v>58.18181691563512</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319249</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S14" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T14" t="n">
         <v>2.358494783467655</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>0.2882709215097962</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J15" t="n">
         <v>27.23528035194088</v>
@@ -32081,28 +32081,28 @@
         <v>46.54943209309722</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N15" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q15" t="n">
         <v>36.79753026149609</v>
       </c>
       <c r="R15" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T15" t="n">
         <v>1.161934109067994</v>
@@ -32148,40 +32148,40 @@
         <v>0.2416766569459464</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J16" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608359</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M16" t="n">
         <v>37.88391450653594</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428291</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O16" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q16" t="n">
         <v>20.23712442844648</v>
       </c>
       <c r="R16" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T16" t="n">
         <v>1.032618443314498</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S17" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K18" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R18" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T18" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J19" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428288</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P19" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R19" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T19" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S20" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K21" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R21" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T21" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J22" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428288</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P22" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R22" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T22" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S23" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K24" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R24" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T24" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J25" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428288</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P25" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R25" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T25" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S26" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K27" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R27" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T27" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J28" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428288</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P28" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R28" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T28" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J29" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q29" t="n">
         <v>58.18181691563512</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319249</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S29" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T29" t="n">
         <v>2.358494783467655</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>0.2882709215097962</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J30" t="n">
         <v>27.23528035194088</v>
@@ -33266,28 +33266,28 @@
         <v>46.54943209309722</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N30" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q30" t="n">
         <v>36.79753026149609</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T30" t="n">
         <v>1.161934109067994</v>
@@ -33333,40 +33333,40 @@
         <v>0.2416766569459464</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J31" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608359</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M31" t="n">
         <v>37.88391450653594</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428291</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O31" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q31" t="n">
         <v>20.23712442844648</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T31" t="n">
         <v>1.032618443314498</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S32" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K33" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R33" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J34" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428288</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R34" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S35" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K36" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R36" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J37" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428288</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R37" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T37" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S38" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K39" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R39" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J40" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428288</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R40" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T40" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S41" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K42" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R42" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J43" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428288</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R43" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T43" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S44" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K45" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R45" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J46" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428288</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R46" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T46" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K11" t="n">
-        <v>238.9998570709631</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L11" t="n">
         <v>436.4223628785868</v>
@@ -35425,7 +35425,7 @@
         <v>398.8632430757228</v>
       </c>
       <c r="P11" t="n">
-        <v>307.938267249927</v>
+        <v>117.3838847586903</v>
       </c>
       <c r="Q11" t="n">
         <v>153.567931750521</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K12" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>562.9739572239781</v>
+        <v>373.1787643071298</v>
       </c>
       <c r="N12" t="n">
-        <v>211.349198416425</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O12" t="n">
         <v>464.7485518834702</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466119</v>
+        <v>46.62700578466124</v>
       </c>
       <c r="K13" t="n">
         <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703756</v>
+        <v>226.5511725703757</v>
       </c>
       <c r="M13" t="n">
         <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.598779052633</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O13" t="n">
         <v>222.6152580511274</v>
@@ -35586,7 +35586,7 @@
         <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0822888341504</v>
+        <v>71.08228883415045</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N14" t="n">
-        <v>287.733769595491</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8632430757228</v>
+        <v>208.3088605844863</v>
       </c>
       <c r="P14" t="n">
         <v>307.938267249927</v>
@@ -35732,7 +35732,7 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
-        <v>379.0815607653598</v>
+        <v>543.113243646829</v>
       </c>
       <c r="N15" t="n">
         <v>591.4044077482507</v>
@@ -35741,10 +35741,10 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P15" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466119</v>
+        <v>46.62700578466125</v>
       </c>
       <c r="K16" t="n">
         <v>151.0191897391237</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703756</v>
+        <v>226.5511725703757</v>
       </c>
       <c r="M16" t="n">
         <v>246.066406569938</v>
       </c>
       <c r="N16" t="n">
-        <v>245.598779052633</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P16" t="n">
         <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.0822888341504</v>
+        <v>71.08228883415046</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L17" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M17" t="n">
         <v>491.8157444113278</v>
@@ -35896,7 +35896,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P17" t="n">
         <v>117.3838847586903</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K18" t="n">
-        <v>94.4656745841647</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L18" t="n">
         <v>432.1084713292371</v>
@@ -35972,16 +35972,16 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4044077482506</v>
+        <v>587.9996956720898</v>
       </c>
       <c r="O18" t="n">
-        <v>464.7485518834702</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M19" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N19" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O19" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K20" t="n">
-        <v>311.1004426054802</v>
+        <v>120.546060114244</v>
       </c>
       <c r="L20" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M20" t="n">
         <v>491.8157444113278</v>
@@ -36133,13 +36133,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P20" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.46734621600444</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K21" t="n">
-        <v>94.4656745841647</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L21" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>562.9739572239781</v>
+        <v>526.9291645935842</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
@@ -36218,7 +36218,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M22" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N22" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O22" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
-        <v>238.9998570709623</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L23" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M23" t="n">
-        <v>491.8157444113278</v>
+        <v>301.2613619200915</v>
       </c>
       <c r="N23" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P23" t="n">
         <v>307.938267249927</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K24" t="n">
         <v>278.3580710427827</v>
@@ -36446,10 +36446,10 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O24" t="n">
-        <v>84.69334255164402</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P24" t="n">
         <v>360.1944957546763</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M25" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N25" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O25" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614366</v>
+        <v>311.2490130156815</v>
       </c>
       <c r="L26" t="n">
         <v>538.921514134543</v>
@@ -36607,16 +36607,16 @@
         <v>580.7873033426847</v>
       </c>
       <c r="O26" t="n">
-        <v>501.362394331679</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.7165021607231</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004358</v>
+        <v>46.61117633004359</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K27" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>432.1084713292371</v>
@@ -36683,7 +36683,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>123.2511437886192</v>
+        <v>401.6092148314016</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206569</v>
+        <v>60.12902470206571</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>413.5995938614366</v>
       </c>
       <c r="L29" t="n">
-        <v>538.921514134543</v>
+        <v>436.5709332887889</v>
       </c>
       <c r="M29" t="n">
-        <v>594.3148956672842</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N29" t="n">
         <v>580.7873033426847</v>
@@ -36850,10 +36850,10 @@
         <v>410.4374185058833</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.7165021607231</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R29" t="n">
-        <v>46.6111763300436</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K30" t="n">
         <v>278.3580710427827</v>
@@ -36917,7 +36917,7 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0151890190224</v>
+        <v>94.82069326434616</v>
       </c>
       <c r="N30" t="n">
         <v>591.4044077482507</v>
@@ -36926,7 +36926,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q30" t="n">
         <v>196.1628128732074</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -37008,7 +37008,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155492</v>
+        <v>84.5843077515549</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>413.5995938614366</v>
       </c>
       <c r="L32" t="n">
-        <v>538.921514134543</v>
+        <v>436.5709332887889</v>
       </c>
       <c r="M32" t="n">
         <v>594.3148956672841</v>
@@ -37081,13 +37081,13 @@
         <v>580.7873033426847</v>
       </c>
       <c r="O32" t="n">
-        <v>501.362394331679</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.7165021607231</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R32" t="n">
         <v>46.61117633004358</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M33" t="n">
-        <v>559.5692451478169</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>363.0514135944267</v>
       </c>
       <c r="P33" t="n">
         <v>360.1944957546763</v>
@@ -37233,7 +37233,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873424</v>
+        <v>259.5684254873432</v>
       </c>
       <c r="N34" t="n">
         <v>259.1007979700375</v>
@@ -37306,10 +37306,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M35" t="n">
         <v>491.8157444113278</v>
@@ -37318,13 +37318,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P35" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.5679317505215</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K36" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>432.1084713292371</v>
@@ -37394,16 +37394,16 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N36" t="n">
-        <v>587.9996956720887</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P36" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1628128732074</v>
+        <v>6.367619956358105</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M37" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N37" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O37" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M38" t="n">
         <v>491.8157444113278</v>
@@ -37555,13 +37555,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P38" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.567931750521</v>
+        <v>153.5679317505206</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K39" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M39" t="n">
-        <v>94.82069326434593</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O39" t="n">
-        <v>464.7485518834702</v>
+        <v>274.9533589666209</v>
       </c>
       <c r="P39" t="n">
         <v>360.1944957546763</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N40" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O40" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567198</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M41" t="n">
         <v>491.8157444113278</v>
@@ -37792,7 +37792,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P41" t="n">
         <v>307.938267249927</v>
@@ -37862,13 +37862,13 @@
         <v>278.3580710427827</v>
       </c>
       <c r="L42" t="n">
-        <v>432.1084713292371</v>
+        <v>248.2160748706181</v>
       </c>
       <c r="M42" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3491984164243</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O42" t="n">
         <v>464.7485518834702</v>
@@ -37877,7 +37877,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N43" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O43" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M44" t="n">
         <v>491.8157444113278</v>
@@ -38029,13 +38029,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P44" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.5679317505211</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K45" t="n">
-        <v>278.3580710427827</v>
+        <v>242.3132784123876</v>
       </c>
       <c r="L45" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O45" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P45" t="n">
-        <v>176.3020992960577</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M46" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N46" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O46" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
